--- a/www/terminologies/CodeSystem-TRE-R16-LieuFormation.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R16-LieuFormation.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250709120000</t>
+    <t>20251016120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T12:00:00+01:00</t>
+    <t>2025-10-16T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2494,7 +2494,7 @@
     <t>UK11</t>
   </si>
   <si>
-    <t>IFMK du CHU de Grenoble</t>
+    <t>IFMK du CHU de Grenoble (Saint-Martin d'Hères)</t>
   </si>
   <si>
     <t>UK12</t>
